--- a/Codes/data_table1.xlsx
+++ b/Codes/data_table1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>PE</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Book value</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -502,10 +507,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>10.89</v>
+        <v>10.93</v>
       </c>
       <c r="F2" t="n">
-        <v>10.7684</v>
+        <v>10.7922</v>
       </c>
       <c r="G2" t="n">
         <v>1.32</v>
@@ -514,7 +519,10 @@
         <v>0.120799996</v>
       </c>
       <c r="I2" t="n">
-        <v>15.557143</v>
+        <v>15.614286</v>
+      </c>
+      <c r="J2" t="n">
+        <v>9.474</v>
       </c>
     </row>
     <row r="3">
@@ -523,39 +531,64 @@
           <t>BCFF11.SA</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>NF</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>NF</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
           <t>BRL</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>72.09</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>73.1926</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>NF</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>NF</t>
-        </is>
-      </c>
+        <v>73.1842</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>3.4770653</v>
+        <v>3.4722424</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>SAPR4.SA</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Utilities</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Utilities - Regulated Water</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>BRL</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4.4962</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.084300004</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5.2235293</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6.022</v>
       </c>
     </row>
   </sheetData>

--- a/Codes/data_table1.xlsx
+++ b/Codes/data_table1.xlsx
@@ -531,15 +531,23 @@
           <t>BCFF11.SA</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>BRL</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>71.98999999999999</v>
+        <v>71.91</v>
       </c>
       <c r="F3" t="n">
         <v>73.1842</v>
@@ -547,7 +555,7 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>3.4722424</v>
+        <v>3.468384</v>
       </c>
       <c r="J3" t="inlineStr"/>
     </row>
@@ -573,7 +581,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4.44</v>
+        <v>4.42</v>
       </c>
       <c r="F4" t="n">
         <v>4.4962</v>
@@ -585,7 +593,7 @@
         <v>0.084300004</v>
       </c>
       <c r="I4" t="n">
-        <v>5.2235293</v>
+        <v>5.2</v>
       </c>
       <c r="J4" t="n">
         <v>6.022</v>
